--- a/universities.xlsx
+++ b/universities.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\教育company\办公司\doubaozhiyuan-final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD5B78B-C819-4D83-B680-61B46C3CDF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E783737-6A66-4333-95D7-7A2E2B90FC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,18 +36,12 @@
     <t>综合</t>
   </si>
   <si>
-    <t>清华大学官网</t>
-  </si>
-  <si>
     <t>清华大学是中国顶尖的综合性大学，以其严谨的学风和卓越的科研成果著称。</t>
   </si>
   <si>
     <t>北京大学</t>
   </si>
   <si>
-    <t>北京大学官网</t>
-  </si>
-  <si>
     <t>北京大学是中国最著名的高等学府之一，拥有悠久的历史和深厚的文化底蕴。</t>
   </si>
   <si>
@@ -57,9 +51,6 @@
     <t>浙江</t>
   </si>
   <si>
-    <t>浙江大学官网</t>
-  </si>
-  <si>
     <t>浙江大学是中国东部地区的重要高等学府，以其全面的学科设置和优秀的教学质量著称。</t>
   </si>
   <si>
@@ -72,9 +63,6 @@
     <t>理工</t>
   </si>
   <si>
-    <t>中国科学技术大学官网</t>
-  </si>
-  <si>
     <t>中国科学技术大学是中国科学院直属的高等学府，以培养科技创新人才为宗旨。</t>
   </si>
   <si>
@@ -84,18 +72,12 @@
     <t>上海</t>
   </si>
   <si>
-    <t>复旦大学官网</t>
-  </si>
-  <si>
     <t>复旦大学是中国东部地区的重要高等学府，以其优秀的文科和理科教育著称。</t>
   </si>
   <si>
     <t>上海交通大学</t>
   </si>
   <si>
-    <t>上海交通大学官网</t>
-  </si>
-  <si>
     <t>上海交通大学是中国东部地区的重要高等学府，以其优秀的工科和医科教育著称。</t>
   </si>
   <si>
@@ -105,9 +87,6 @@
     <t>江苏</t>
   </si>
   <si>
-    <t>南京大学官网</t>
-  </si>
-  <si>
     <t>南京大学是中国东部地区的重要高等学府，以其全面的学科设置和优秀的教学质量著称。</t>
   </si>
   <si>
@@ -117,18 +96,12 @@
     <t>湖北</t>
   </si>
   <si>
-    <t>武汉大学官网</t>
-  </si>
-  <si>
     <t>武汉大学是中国中部地区的重要高等学府，以其美丽的校园环境和优秀的教学质量著称。</t>
   </si>
   <si>
     <t>华中科技大学</t>
   </si>
   <si>
-    <t>华中科技大学官网</t>
-  </si>
-  <si>
     <t>华中科技大学是中国中部地区的重要高等学府，以其优秀的工科和医科教育著称。</t>
   </si>
   <si>
@@ -138,9 +111,6 @@
     <t>四川</t>
   </si>
   <si>
-    <t>四川大学官网</t>
-  </si>
-  <si>
     <t>四川大学是中国西部地区的重要高等学府，以其全面的学科设置和优秀的教学质量著称。</t>
   </si>
   <si>
@@ -198,13 +168,43 @@
   </si>
   <si>
     <t>/images/university/tsinghua.png</t>
+  </si>
+  <si>
+    <t>https://www.tsinghua.edu.cn/</t>
+  </si>
+  <si>
+    <t>https://www.pku.edu.cn/</t>
+  </si>
+  <si>
+    <t>https://www.zju.edu.cn/</t>
+  </si>
+  <si>
+    <t>https://www.ustc.edu.cn/</t>
+  </si>
+  <si>
+    <t>https://www.fudan.edu.cn/</t>
+  </si>
+  <si>
+    <t>https://www.sjtu.edu.cn/</t>
+  </si>
+  <si>
+    <t>https://www.nju.edu.cn/</t>
+  </si>
+  <si>
+    <t>https://www.whu.edu.cn/</t>
+  </si>
+  <si>
+    <t>https://www.hust.edu.cn/</t>
+  </si>
+  <si>
+    <t>https://www.scu.edu.cn/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,14 +237,6 @@
     <font>
       <sz val="9"/>
       <color rgb="FF060607"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color theme="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -303,7 +295,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -590,45 +582,46 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="12.58203125" customWidth="1"/>
     <col min="5" max="5" width="14.83203125" customWidth="1"/>
-    <col min="6" max="7" width="12.58203125" customWidth="1"/>
+    <col min="6" max="6" width="12.58203125" customWidth="1"/>
+    <col min="7" max="7" width="31.08203125" customWidth="1"/>
     <col min="8" max="8" width="37" customWidth="1"/>
     <col min="9" max="9" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -642,27 +635,27 @@
         <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
       </c>
       <c r="G2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -671,269 +664,269 @@
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F3" s="3">
         <v>2</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F4" s="3">
         <v>3</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F5" s="3">
         <v>3</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F6" s="3">
         <v>4</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F7" s="3">
         <v>5</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F8" s="3">
         <v>6</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F9" s="3">
         <v>7</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F10" s="3">
         <v>8</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F11" s="3">
         <v>9</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="https://www.tsinghua.edu.cn/" xr:uid="{4A77D871-DEA2-4DC6-9FF0-FD820019CBF7}"/>
-    <hyperlink ref="G3" r:id="rId2" display="https://www.pku.edu.cn/" xr:uid="{78666AD5-D880-44B4-B269-CAA2F7EB493D}"/>
-    <hyperlink ref="G4" r:id="rId3" display="https://www.zju.edu.cn/" xr:uid="{DAA05679-8C07-4414-941B-80879D759C2A}"/>
-    <hyperlink ref="G5" r:id="rId4" display="https://www.ustc.edu.cn/" xr:uid="{DB4289D2-C475-4854-B871-BE308F5E75F7}"/>
-    <hyperlink ref="G6" r:id="rId5" display="https://www.fudan.edu.cn/" xr:uid="{B1E79B40-53CE-47C2-935A-95512C0EC115}"/>
-    <hyperlink ref="G7" r:id="rId6" display="https://www.sjtu.edu.cn/" xr:uid="{F16C7DA9-059B-4D33-8D1A-502E06AAEF0B}"/>
-    <hyperlink ref="G8" r:id="rId7" display="https://www.nju.edu.cn/" xr:uid="{2B922EE1-EA6E-4A8D-B8D3-07A4F5E123E2}"/>
-    <hyperlink ref="G9" r:id="rId8" display="https://www.whu.edu.cn/" xr:uid="{E0494967-1E87-44B5-8A66-8DE349E3FBB0}"/>
-    <hyperlink ref="G10" r:id="rId9" display="https://www.hust.edu.cn/" xr:uid="{6F917CCA-1872-4647-AC39-B448A672CA20}"/>
-    <hyperlink ref="G11" r:id="rId10" display="https://www.scu.edu.cn/" xr:uid="{F396134C-7C34-44A2-BE59-3B4FEFB72BFF}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{4A77D871-DEA2-4DC6-9FF0-FD820019CBF7}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{78666AD5-D880-44B4-B269-CAA2F7EB493D}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{DAA05679-8C07-4414-941B-80879D759C2A}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{DB4289D2-C475-4854-B871-BE308F5E75F7}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{B1E79B40-53CE-47C2-935A-95512C0EC115}"/>
+    <hyperlink ref="G7" r:id="rId6" xr:uid="{F16C7DA9-059B-4D33-8D1A-502E06AAEF0B}"/>
+    <hyperlink ref="G8" r:id="rId7" xr:uid="{2B922EE1-EA6E-4A8D-B8D3-07A4F5E123E2}"/>
+    <hyperlink ref="G9" r:id="rId8" xr:uid="{E0494967-1E87-44B5-8A66-8DE349E3FBB0}"/>
+    <hyperlink ref="G10" r:id="rId9" xr:uid="{6F917CCA-1872-4647-AC39-B448A672CA20}"/>
+    <hyperlink ref="G11" r:id="rId10" xr:uid="{F396134C-7C34-44A2-BE59-3B4FEFB72BFF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
